--- a/data/trans_orig/P2A_lim_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11530</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5443</v>
+        <v>5931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19082</v>
+        <v>19893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04249619863446845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02006171217005443</v>
+        <v>0.02185992502979495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07033152310202929</v>
+        <v>0.07331979610654669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8428</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3964</v>
+        <v>4056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15847</v>
+        <v>15723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03246473209192631</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01526967898910311</v>
+        <v>0.01562384106300077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06104102505510129</v>
+        <v>0.06056213997339016</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -786,19 +786,19 @@
         <v>19958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12493</v>
+        <v>12379</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31351</v>
+        <v>30924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03759103051699159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02353132579798213</v>
+        <v>0.02331676674033172</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05904922975583812</v>
+        <v>0.05824560464545488</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>259784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252232</v>
+        <v>251421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>265871</v>
+        <v>265383</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9575038013655316</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9296684768979711</v>
+        <v>0.9266802038934536</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9799382878299456</v>
+        <v>0.9781400749702053</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -836,19 +836,19 @@
         <v>251183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243764</v>
+        <v>243888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255647</v>
+        <v>255555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9675352679080736</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.938958974944899</v>
+        <v>0.9394378600266099</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9847303210108985</v>
+        <v>0.9843761589369994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>495</v>
@@ -857,19 +857,19 @@
         <v>510967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>499574</v>
+        <v>500001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518432</v>
+        <v>518546</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9624089694830084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9409507702441618</v>
+        <v>0.9417543953545449</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9764686742020179</v>
+        <v>0.9766832332596681</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>49261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37193</v>
+        <v>35963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65289</v>
+        <v>63857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09990576296828964</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07543139225640894</v>
+        <v>0.07293689278703605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1324123519173027</v>
+        <v>0.1295069910668764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -982,19 +982,19 @@
         <v>54627</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40365</v>
+        <v>41477</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69469</v>
+        <v>68997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1083982361730954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08009672190830294</v>
+        <v>0.08230392006517721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1378487698989923</v>
+        <v>0.1369131710994658</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -1003,19 +1003,19 @@
         <v>103888</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84996</v>
+        <v>85945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126261</v>
+        <v>125382</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1041983107509319</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08524924787311899</v>
+        <v>0.08620173166787067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1266383233053018</v>
+        <v>0.1257558797459434</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>443814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>427786</v>
+        <v>429218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>455882</v>
+        <v>457112</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9000942370317103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8675876480826973</v>
+        <v>0.870493008933124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9245686077435914</v>
+        <v>0.927063107212964</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -1053,19 +1053,19 @@
         <v>449322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>434480</v>
+        <v>434952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463584</v>
+        <v>462472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8916017638269046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8621512301010076</v>
+        <v>0.8630868289005342</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9199032780916968</v>
+        <v>0.9176960799348228</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>866</v>
@@ -1074,19 +1074,19 @@
         <v>893136</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>870763</v>
+        <v>871642</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>912028</v>
+        <v>911079</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8958016892490681</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8733616766946981</v>
+        <v>0.8742441202540567</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.914750752126881</v>
+        <v>0.9137982683321296</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9014</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4080</v>
+        <v>4134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16258</v>
+        <v>15600</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02826919413453526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01279576934582105</v>
+        <v>0.01296624666500166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05099133250853867</v>
+        <v>0.04892675561033169</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>10486</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5357</v>
+        <v>5387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18658</v>
+        <v>19024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03126225262317554</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01597030009775389</v>
+        <v>0.0160601217718587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0556271320004088</v>
+        <v>0.05671835464052915</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1220,19 +1220,19 @@
         <v>19499</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12362</v>
+        <v>11875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29365</v>
+        <v>28930</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02980361613987185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01889542495541239</v>
+        <v>0.01814999682068835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04488233873943302</v>
+        <v>0.04421765430380894</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>309832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302588</v>
+        <v>303246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314766</v>
+        <v>314712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9717308058654648</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9490086674914613</v>
+        <v>0.9510732443896692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9872042306541792</v>
+        <v>0.9870337533349985</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>324</v>
@@ -1270,19 +1270,19 @@
         <v>324926</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316754</v>
+        <v>316388</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330055</v>
+        <v>330025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9687377473768245</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9443728679995911</v>
+        <v>0.9432816453594705</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9840296999022461</v>
+        <v>0.9839398782281413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -1291,19 +1291,19 @@
         <v>634759</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>624893</v>
+        <v>625328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641896</v>
+        <v>642383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9701963838601282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.955117661260567</v>
+        <v>0.9557823456961911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9811045750445876</v>
+        <v>0.9818500031793117</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>19695</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12436</v>
+        <v>12564</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29247</v>
+        <v>29759</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05537543245854101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03496604521524885</v>
+        <v>0.03532602655629392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08223093915012866</v>
+        <v>0.08367113953762091</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>21590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13920</v>
+        <v>14383</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31156</v>
+        <v>31399</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05812369586205007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0374748813439586</v>
+        <v>0.0387193873773615</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08387539607831224</v>
+        <v>0.08452934813948754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -1437,19 +1437,19 @@
         <v>41286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30380</v>
+        <v>29576</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53998</v>
+        <v>54378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05677939727158516</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04178085369998744</v>
+        <v>0.04067566367957367</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07426248142033455</v>
+        <v>0.07478418713512401</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>335975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>326423</v>
+        <v>325911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343234</v>
+        <v>343106</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.944624567541459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9177690608498713</v>
+        <v>0.9163288604623792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9650339547847511</v>
+        <v>0.9646739734437066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -1487,19 +1487,19 @@
         <v>349866</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>340300</v>
+        <v>340057</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>357536</v>
+        <v>357073</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.94187630413795</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9161246039216877</v>
+        <v>0.9154706518605124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9625251186560414</v>
+        <v>0.9612806126226385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -1508,19 +1508,19 @@
         <v>685840</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>673128</v>
+        <v>672748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>696746</v>
+        <v>697550</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9432206027284148</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9257375185796656</v>
+        <v>0.9252158128648759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9582191463000129</v>
+        <v>0.9593243363204262</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>20102</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13026</v>
+        <v>13237</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29602</v>
+        <v>28830</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09887673447576817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06406875304801178</v>
+        <v>0.06510611983996237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1456033968929762</v>
+        <v>0.1418061257434455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1633,19 +1633,19 @@
         <v>26790</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18228</v>
+        <v>17926</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37787</v>
+        <v>39521</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1290046352741413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08777294440198859</v>
+        <v>0.08631993559729283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1819593961841763</v>
+        <v>0.1903067627822985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1654,19 +1654,19 @@
         <v>46893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34527</v>
+        <v>35858</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59878</v>
+        <v>62072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1141004949939903</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0840121860002139</v>
+        <v>0.08724973110732764</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1456966687624919</v>
+        <v>0.1510352755045803</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>183206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173706</v>
+        <v>174478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190282</v>
+        <v>190071</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9011232655242318</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8543966031070238</v>
+        <v>0.8581938742565546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9359312469519883</v>
+        <v>0.9348938801600377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>173</v>
@@ -1704,19 +1704,19 @@
         <v>180878</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>169881</v>
+        <v>168147</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189440</v>
+        <v>189742</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8709953647258587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8180406038158237</v>
+        <v>0.8096932372177015</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9122270555980113</v>
+        <v>0.9136800644027072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -1725,19 +1725,19 @@
         <v>364083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>351098</v>
+        <v>348904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>376449</v>
+        <v>375118</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8858995050060097</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.854303331237508</v>
+        <v>0.8489647244954197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.915987813999786</v>
+        <v>0.9127502688926723</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3925</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1019</v>
+        <v>978</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11096</v>
+        <v>9823</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01460408662608148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003790932179985756</v>
+        <v>0.00363885561374939</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0412804673757219</v>
+        <v>0.03654663914343173</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1850,19 +1850,19 @@
         <v>8183</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3733</v>
+        <v>3753</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15581</v>
+        <v>15607</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02942177337489114</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01342267164193251</v>
+        <v>0.01349284861188335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05601898958641584</v>
+        <v>0.05611125463005114</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1871,19 +1871,19 @@
         <v>12109</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6218</v>
+        <v>6336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19827</v>
+        <v>20892</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02213959818411582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01136916079789491</v>
+        <v>0.01158418210830243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03625133420764589</v>
+        <v>0.03819766134027856</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>264868</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257697</v>
+        <v>258970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267774</v>
+        <v>267815</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9853959133739185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9587195326242789</v>
+        <v>0.9634533608565672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9962090678200143</v>
+        <v>0.9963611443862506</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>262</v>
@@ -1921,19 +1921,19 @@
         <v>269961</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262563</v>
+        <v>262537</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>274411</v>
+        <v>274391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9705782266251088</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9439810104135831</v>
+        <v>0.9438887453699489</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9865773283580673</v>
+        <v>0.9865071513881166</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -1942,19 +1942,19 @@
         <v>534828</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527110</v>
+        <v>526045</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>540719</v>
+        <v>540601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9778604018158842</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9637486657923542</v>
+        <v>0.9618023386597218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9886308392021053</v>
+        <v>0.9884158178916976</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>42920</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30575</v>
+        <v>30986</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57737</v>
+        <v>56284</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06978506632545364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04971314921607439</v>
+        <v>0.05038115630749104</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09387651894442277</v>
+        <v>0.09151547064074061</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -2067,19 +2067,19 @@
         <v>50279</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37267</v>
+        <v>37666</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66127</v>
+        <v>65852</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07878059487758965</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05839247676597012</v>
+        <v>0.05901692345017771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1036124472066706</v>
+        <v>0.1031815696907241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -2088,19 +2088,19 @@
         <v>93199</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76514</v>
+        <v>75022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116911</v>
+        <v>113113</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07436606430067773</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06105226096391227</v>
+        <v>0.05986184055057572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09328683608120078</v>
+        <v>0.0902559164674907</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>572107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>557290</v>
+        <v>558743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>584452</v>
+        <v>584041</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9302149336745463</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9061234810555776</v>
+        <v>0.9084845293592594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9502868507839257</v>
+        <v>0.9496188436925089</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>574</v>
@@ -2138,19 +2138,19 @@
         <v>587940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>572092</v>
+        <v>572367</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>600952</v>
+        <v>600553</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9212194051224103</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8963875527933294</v>
+        <v>0.896818430309275</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9416075232340299</v>
+        <v>0.9409830765498221</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1129</v>
@@ -2159,19 +2159,19 @@
         <v>1160047</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1136335</v>
+        <v>1140133</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1176732</v>
+        <v>1178224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9256339356993223</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9067131639187991</v>
+        <v>0.9097440835325095</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9389477390360875</v>
+        <v>0.9401381594494244</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>61212</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46630</v>
+        <v>47115</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77134</v>
+        <v>77210</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08258086483692306</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06290823147512065</v>
+        <v>0.06356310827401108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1040620610979609</v>
+        <v>0.1041642727420522</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -2284,19 +2284,19 @@
         <v>91045</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>73994</v>
+        <v>75155</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110949</v>
+        <v>110839</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1166555870164879</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09480800987644321</v>
+        <v>0.09629490680450004</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1421580711844595</v>
+        <v>0.142017077184439</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -2305,19 +2305,19 @@
         <v>152257</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>129519</v>
+        <v>128883</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>178345</v>
+        <v>175826</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1000574518367842</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08511480816143008</v>
+        <v>0.08469663835165182</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1172017476379793</v>
+        <v>0.1155460422925014</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>680021</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>664099</v>
+        <v>664023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>694603</v>
+        <v>694118</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9174191351630769</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8959379389020391</v>
+        <v>0.895835727257948</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9370917685248795</v>
+        <v>0.936436891725989</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>658</v>
@@ -2355,19 +2355,19 @@
         <v>689418</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>669514</v>
+        <v>669624</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>706469</v>
+        <v>705308</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8833444129835121</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8578419288155406</v>
+        <v>0.857982922815561</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9051919901235568</v>
+        <v>0.9037050931955</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1330</v>
@@ -2376,19 +2376,19 @@
         <v>1369439</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1343351</v>
+        <v>1345870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1392177</v>
+        <v>1392813</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8999425481632157</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8827982523620206</v>
+        <v>0.8844539577074986</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9148851918385699</v>
+        <v>0.9153033616483481</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>217659</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06661808953176103</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>258</v>
@@ -2501,19 +2501,19 @@
         <v>271430</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08042549863251321</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>473</v>
@@ -2522,19 +2522,19 @@
         <v>489089</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07363368797087154</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3049607</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3020801</v>
+        <v>3020589</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3076912</v>
+        <v>3075864</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9333819104682389</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9245654854652267</v>
+        <v>0.9245003564909031</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9417390237856124</v>
+        <v>0.9414183119261059</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3035</v>
@@ -2572,19 +2572,19 @@
         <v>3103491</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3070448</v>
+        <v>3066834</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3134190</v>
+        <v>3132057</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9195745013674868</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9097835932154078</v>
+        <v>0.9087127651122336</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9286706292277177</v>
+        <v>0.9280386974851659</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6025</v>
@@ -2593,19 +2593,19 @@
         <v>6153098</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6106868</v>
+        <v>6108406</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6197324</v>
+        <v>6196427</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9263663120291284</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9194062020154623</v>
+        <v>0.9196377937568427</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9330246539899476</v>
+        <v>0.9328896464329813</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>37922</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27124</v>
+        <v>26945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50792</v>
+        <v>50906</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1286635955452731</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09202631644521025</v>
+        <v>0.09141906641591999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1723283300560486</v>
+        <v>0.1727170039089871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2962,19 +2962,19 @@
         <v>49646</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37003</v>
+        <v>37478</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64807</v>
+        <v>64500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1728338124260036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1288189342826757</v>
+        <v>0.1304733600788902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2256142340228369</v>
+        <v>0.2245467749505215</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -2983,19 +2983,19 @@
         <v>87568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70712</v>
+        <v>71409</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108399</v>
+        <v>108205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1504643582542983</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1215010502885882</v>
+        <v>0.1226999609527868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1862584731140225</v>
+        <v>0.1859241274290872</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>256816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243946</v>
+        <v>243832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267614</v>
+        <v>267793</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8713364044547269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8276716699439514</v>
+        <v>0.8272829960910127</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9079736835547894</v>
+        <v>0.9085809335840799</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -3033,19 +3033,19 @@
         <v>237599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>222438</v>
+        <v>222745</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250242</v>
+        <v>249767</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8271661875739964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.774385765977163</v>
+        <v>0.7754532250494784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8711810657173243</v>
+        <v>0.8695266399211098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -3054,19 +3054,19 @@
         <v>494415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>473584</v>
+        <v>473778</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>511271</v>
+        <v>510574</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8495356417457017</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8137415268859775</v>
+        <v>0.814075872570913</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8784989497114118</v>
+        <v>0.8773000390472138</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>50091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38192</v>
+        <v>36931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67401</v>
+        <v>66706</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09908725503418371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07554970018955751</v>
+        <v>0.07305450156246798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1333281620200295</v>
+        <v>0.1319524700268898</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -3179,19 +3179,19 @@
         <v>54738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42348</v>
+        <v>40279</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70288</v>
+        <v>70014</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1045085437659242</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08085358593293802</v>
+        <v>0.07690188458482249</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1341975148078422</v>
+        <v>0.1336737276025253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -3200,19 +3200,19 @@
         <v>104829</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85738</v>
+        <v>86393</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127158</v>
+        <v>126133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1018459285645297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08329764708896939</v>
+        <v>0.0839344646863126</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1235396579103996</v>
+        <v>0.1225437567674115</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>455436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>438126</v>
+        <v>438821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467335</v>
+        <v>468596</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9009127449658163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8666718379799706</v>
+        <v>0.8680475299731102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9244502998104426</v>
+        <v>0.926945498437532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>430</v>
@@ -3250,19 +3250,19 @@
         <v>469027</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>453477</v>
+        <v>453751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>481417</v>
+        <v>483486</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8954914562340758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8658024851921579</v>
+        <v>0.8663262723974748</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.919146414067062</v>
+        <v>0.9230981154151779</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>857</v>
@@ -3271,19 +3271,19 @@
         <v>924463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>902134</v>
+        <v>903159</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>943554</v>
+        <v>942899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8981540714354703</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8764603420896004</v>
+        <v>0.8774562432325885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9167023529110305</v>
+        <v>0.9160655353136874</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>31281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21088</v>
+        <v>21482</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45904</v>
+        <v>44452</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09653397498623319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06507649112646186</v>
+        <v>0.06629225579490991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.141658036153802</v>
+        <v>0.1371790101335052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -3396,19 +3396,19 @@
         <v>32508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22950</v>
+        <v>22169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46138</v>
+        <v>45514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09532527173579249</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06729725365074281</v>
+        <v>0.0650075083331144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.13529419714336</v>
+        <v>0.1334637609799928</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3417,19 +3417,19 @@
         <v>63789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49038</v>
+        <v>49305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83627</v>
+        <v>80805</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09591419892372439</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07373371461298084</v>
+        <v>0.07413596832163324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1257417554733765</v>
+        <v>0.1214985196593172</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>292765</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278142</v>
+        <v>279594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302958</v>
+        <v>302564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9034660250137668</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8583419638461978</v>
+        <v>0.862820989866495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9349235088735381</v>
+        <v>0.9337077442050903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -3467,19 +3467,19 @@
         <v>308512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>294882</v>
+        <v>295506</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318070</v>
+        <v>318851</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9046747282642075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.86470580285664</v>
+        <v>0.8665362390200075</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9327027463492575</v>
+        <v>0.9349924916668859</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>579</v>
@@ -3488,19 +3488,19 @@
         <v>601277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>581439</v>
+        <v>584261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>616028</v>
+        <v>615761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9040858010762756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8742582445266237</v>
+        <v>0.8785014803406829</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9262662853870195</v>
+        <v>0.9258640316783667</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>26420</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17833</v>
+        <v>17100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38401</v>
+        <v>38050</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07064489991080859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04768361302290091</v>
+        <v>0.04572283994111662</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.102681738278711</v>
+        <v>0.1017417566337434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -3613,19 +3613,19 @@
         <v>51260</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38849</v>
+        <v>39229</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67101</v>
+        <v>66408</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1317898222326183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0998815453780271</v>
+        <v>0.1008594885415363</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1725173752178209</v>
+        <v>0.1707359756587695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -3634,19 +3634,19 @@
         <v>77680</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60237</v>
+        <v>62061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95336</v>
+        <v>95563</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1018171981024133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.078954290362753</v>
+        <v>0.08134557449064746</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1249596608248294</v>
+        <v>0.1252577795688052</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>347562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335581</v>
+        <v>335932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356149</v>
+        <v>356882</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9293551000891914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8973182617212889</v>
+        <v>0.8982582433662566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9523163869770991</v>
+        <v>0.9542771600588834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>323</v>
@@ -3684,19 +3684,19 @@
         <v>337691</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321850</v>
+        <v>322543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350102</v>
+        <v>349722</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8682101777673817</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8274826247821794</v>
+        <v>0.8292640243412298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9001184546219729</v>
+        <v>0.8991405114584635</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>643</v>
@@ -3705,19 +3705,19 @@
         <v>685253</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>667597</v>
+        <v>667370</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>702696</v>
+        <v>700872</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8981828018975867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8750403391751709</v>
+        <v>0.8747422204311948</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9210457096372471</v>
+        <v>0.9186544255093525</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>44184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33465</v>
+        <v>33067</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57826</v>
+        <v>57846</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2078077048030934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1573932912933521</v>
+        <v>0.155522809426908</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2719703370679488</v>
+        <v>0.2720632650410352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -3830,19 +3830,19 @@
         <v>49432</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37778</v>
+        <v>37351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63040</v>
+        <v>61608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2251088176431078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1720368595570547</v>
+        <v>0.1700945579228735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2870789321276305</v>
+        <v>0.2805600470587333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -3851,19 +3851,19 @@
         <v>93616</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76705</v>
+        <v>77006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111206</v>
+        <v>112943</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2165978232958182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1774711151881025</v>
+        <v>0.1781676713900687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2572972500039622</v>
+        <v>0.2613151496045025</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>168434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154792</v>
+        <v>154772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179153</v>
+        <v>179551</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7921922951969066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7280296629320512</v>
+        <v>0.7279367349589648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8426067087066479</v>
+        <v>0.844477190573092</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>165</v>
@@ -3901,19 +3901,19 @@
         <v>170159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>156551</v>
+        <v>157983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>181813</v>
+        <v>182240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7748911823568922</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7129210678723693</v>
+        <v>0.7194399529412667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8279631404429452</v>
+        <v>0.8299054420771265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -3922,19 +3922,19 @@
         <v>338593</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321003</v>
+        <v>319266</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>355504</v>
+        <v>355203</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7834021767041818</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7427027499960377</v>
+        <v>0.7386848503954974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8225288848118973</v>
+        <v>0.8218323286099313</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>21181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12149</v>
+        <v>13427</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31007</v>
+        <v>31940</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07730987133455265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04434135376298527</v>
+        <v>0.04900785982503963</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1131704827763116</v>
+        <v>0.1165770584491318</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -4047,19 +4047,19 @@
         <v>36569</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25765</v>
+        <v>25159</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49484</v>
+        <v>48284</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1305891652394741</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09200815683450619</v>
+        <v>0.08984307659606722</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1767097916118275</v>
+        <v>0.1724236657294719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -4068,19 +4068,19 @@
         <v>57750</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44051</v>
+        <v>42958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72439</v>
+        <v>72478</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1042404320533825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07951240400563873</v>
+        <v>0.07753916725219892</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1307533302198622</v>
+        <v>0.1308240118633666</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>252800</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242974</v>
+        <v>242041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261832</v>
+        <v>260554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9226901286654473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8868295172236884</v>
+        <v>0.8834229415508688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9556586462370148</v>
+        <v>0.9509921401749608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -4118,19 +4118,19 @@
         <v>243462</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230547</v>
+        <v>231747</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254266</v>
+        <v>254872</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8694108347605258</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8232902083881726</v>
+        <v>0.8275763342705278</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9079918431654939</v>
+        <v>0.9101569234039327</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>476</v>
@@ -4139,19 +4139,19 @@
         <v>496262</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>481573</v>
+        <v>481534</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509961</v>
+        <v>511054</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8957595679466175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8692466697801374</v>
+        <v>0.8691759881366335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.920487595994361</v>
+        <v>0.9224608327478012</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>53473</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39542</v>
+        <v>40447</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69224</v>
+        <v>70383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08079909818772583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05974896710041424</v>
+        <v>0.06111657115820621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1045998927439385</v>
+        <v>0.1063508568597066</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -4264,19 +4264,19 @@
         <v>64105</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48153</v>
+        <v>50473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81117</v>
+        <v>82125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09264274062487218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06958877517267333</v>
+        <v>0.07294221561721323</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1172284315567094</v>
+        <v>0.1186849065004291</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -4285,19 +4285,19 @@
         <v>117578</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95241</v>
+        <v>96704</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>141307</v>
+        <v>139191</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08685283282531552</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07035263512957066</v>
+        <v>0.07143337823803893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1043812434533825</v>
+        <v>0.1028182617687321</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>608329</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>592578</v>
+        <v>591419</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>622260</v>
+        <v>621355</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9192009018122742</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8954001072560619</v>
+        <v>0.8936491431402935</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9402510328995858</v>
+        <v>0.9388834288417941</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>577</v>
@@ -4335,19 +4335,19 @@
         <v>627853</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>610841</v>
+        <v>609833</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>643805</v>
+        <v>641485</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9073572593751278</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.88277156844329</v>
+        <v>0.8813150934995708</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9304112248273266</v>
+        <v>0.9270577843827867</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1145</v>
@@ -4356,19 +4356,19 @@
         <v>1236183</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1212454</v>
+        <v>1214570</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1258520</v>
+        <v>1257057</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9131471671746845</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8956187565466174</v>
+        <v>0.8971817382312682</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9296473648704285</v>
+        <v>0.9285666217619613</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>61769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47197</v>
+        <v>47432</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81029</v>
+        <v>80478</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07950495886182214</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06074952895577459</v>
+        <v>0.06105089490010163</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1042955842062668</v>
+        <v>0.1035866448264493</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -4481,19 +4481,19 @@
         <v>71523</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56894</v>
+        <v>56975</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89047</v>
+        <v>90023</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08681484466281926</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06905801409839396</v>
+        <v>0.06915714212508679</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1080859940989228</v>
+        <v>0.1092710111835762</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -4502,19 +4502,19 @@
         <v>133292</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111918</v>
+        <v>108940</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159953</v>
+        <v>157854</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08326706666380035</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06991484485770147</v>
+        <v>0.06805487320593541</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09992258639370355</v>
+        <v>0.09861147491240867</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>715149</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>695889</v>
+        <v>696440</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>729721</v>
+        <v>729486</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9204950411381778</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8957044157937332</v>
+        <v>0.8964133551735507</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9392504710442253</v>
+        <v>0.9389491050998983</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>693</v>
@@ -4552,19 +4552,19 @@
         <v>752330</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>734806</v>
+        <v>733830</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>766959</v>
+        <v>766878</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9131851553371807</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8919140059010772</v>
+        <v>0.8907289888164234</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.930941985901606</v>
+        <v>0.9308428578749129</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1353</v>
@@ -4573,19 +4573,19 @@
         <v>1467479</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1440818</v>
+        <v>1442917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1488853</v>
+        <v>1491831</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9167329333361997</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9000774136062965</v>
+        <v>0.9013885250875913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9300851551422985</v>
+        <v>0.9319451267940645</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>326322</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>293912</v>
+        <v>290534</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>364279</v>
+        <v>363420</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09531501866468625</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08584840693053677</v>
+        <v>0.08486196156895577</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1064018071386423</v>
+        <v>0.1061510008502603</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>373</v>
@@ -4698,19 +4698,19 @@
         <v>409780</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>371732</v>
+        <v>368517</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>449883</v>
+        <v>450570</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1152226944630916</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1045243533825034</v>
+        <v>0.1036203553886634</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1264990469651132</v>
+        <v>0.1266921005266389</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>667</v>
@@ -4719,19 +4719,19 @@
         <v>736101</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>680009</v>
+        <v>688634</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>792730</v>
+        <v>791784</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.105458238510695</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09742210928709205</v>
+        <v>0.09865785065023695</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1135711967415785</v>
+        <v>0.1134357087856461</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3097290</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3059333</v>
+        <v>3060192</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3129700</v>
+        <v>3133078</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9046849813353137</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8935981928613577</v>
+        <v>0.8938489991497396</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9141515930694631</v>
+        <v>0.9151380384310441</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2923</v>
@@ -4769,19 +4769,19 @@
         <v>3146634</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3106531</v>
+        <v>3105844</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3184682</v>
+        <v>3187897</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8847773055369085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8735009530348868</v>
+        <v>0.8733078994733611</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8954756466174966</v>
+        <v>0.8963796446113366</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5835</v>
@@ -4790,19 +4790,19 @@
         <v>6243926</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6187297</v>
+        <v>6188243</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6300018</v>
+        <v>6291393</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.894541761489305</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8864288032584215</v>
+        <v>0.8865642912143534</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9025778907129079</v>
+        <v>0.9013421493497629</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>23666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15233</v>
+        <v>15251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35410</v>
+        <v>35152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08056301722942456</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05185472241387355</v>
+        <v>0.0519152482108405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1205418191771401</v>
+        <v>0.119663196209886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -5159,19 +5159,19 @@
         <v>35718</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25578</v>
+        <v>25088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47863</v>
+        <v>49561</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1237195840981584</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08859510266466109</v>
+        <v>0.08689883150407919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1657854892708741</v>
+        <v>0.1716662293785048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -5180,19 +5180,19 @@
         <v>59384</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45670</v>
+        <v>46185</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75702</v>
+        <v>75018</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1019539191629595</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07840905667153196</v>
+        <v>0.07929318370848064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1299678201762641</v>
+        <v>0.1287937692270541</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>270095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258351</v>
+        <v>258609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278528</v>
+        <v>278510</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9194369827705754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8794581808228599</v>
+        <v>0.8803368037901141</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9481452775861264</v>
+        <v>0.9480847517891596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -5230,19 +5230,19 @@
         <v>252985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240840</v>
+        <v>239142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263125</v>
+        <v>263615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8762804159018416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8342145107291259</v>
+        <v>0.8283337706214955</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9114048973353389</v>
+        <v>0.9131011684959208</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>489</v>
@@ -5251,19 +5251,19 @@
         <v>523080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>506762</v>
+        <v>507446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>536794</v>
+        <v>536279</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8980460808370405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8700321798237359</v>
+        <v>0.871206230772946</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9215909433284681</v>
+        <v>0.9207068162915194</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>19876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13213</v>
+        <v>12310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30857</v>
+        <v>30187</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04044600035569297</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02688764301964451</v>
+        <v>0.02504970491626944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06279310554801266</v>
+        <v>0.06142878161716771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -5376,19 +5376,19 @@
         <v>28507</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19477</v>
+        <v>19277</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41873</v>
+        <v>41464</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05503373603760888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03760154993071018</v>
+        <v>0.03721417029345726</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08083664694796286</v>
+        <v>0.08004795383684885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -5397,19 +5397,19 @@
         <v>48383</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36648</v>
+        <v>36494</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65200</v>
+        <v>63511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0479319340301671</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03630651030060118</v>
+        <v>0.0361534869993635</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06459222046106722</v>
+        <v>0.0629187919456137</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>471537</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460556</v>
+        <v>461226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478200</v>
+        <v>479103</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.959553999644307</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9372068944519873</v>
+        <v>0.9385712183828322</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9731123569803555</v>
+        <v>0.9749502950837305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -5447,19 +5447,19 @@
         <v>489486</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>476120</v>
+        <v>476529</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498516</v>
+        <v>498716</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9449662639623911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9191633530520368</v>
+        <v>0.9199520461631512</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9623984500692898</v>
+        <v>0.9627858297065427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>899</v>
@@ -5468,19 +5468,19 @@
         <v>961022</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>944205</v>
+        <v>945894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>972757</v>
+        <v>972911</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.952068065969833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9354077795389327</v>
+        <v>0.9370812080543862</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9636934896993988</v>
+        <v>0.9638465130006364</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>6665</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2590</v>
+        <v>2657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13354</v>
+        <v>12903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02092223849845779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008130939107041822</v>
+        <v>0.008340980401174444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04192038609569938</v>
+        <v>0.040502157809744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5593,19 +5593,19 @@
         <v>15308</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8750</v>
+        <v>9182</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23354</v>
+        <v>25443</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04551767930721133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02601707685703704</v>
+        <v>0.02730347377193579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06944240838063787</v>
+        <v>0.0756527736268381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -5614,19 +5614,19 @@
         <v>21973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13321</v>
+        <v>14767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32376</v>
+        <v>33195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03355316926852613</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02034155113960442</v>
+        <v>0.02254929213704132</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04943867525269245</v>
+        <v>0.0506887667933021</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>311900</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305211</v>
+        <v>305662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315975</v>
+        <v>315908</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9790777615015422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9580796139043007</v>
+        <v>0.9594978421902562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9918690608929582</v>
+        <v>0.9916590195988255</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -5664,19 +5664,19 @@
         <v>321001</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312955</v>
+        <v>310866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327559</v>
+        <v>327127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9544823206927887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9305575916193621</v>
+        <v>0.9243472263731619</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.973982923142963</v>
+        <v>0.9726965262280641</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>645</v>
@@ -5685,19 +5685,19 @@
         <v>632901</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>622498</v>
+        <v>621679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641553</v>
+        <v>640107</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9664468307314739</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9505613247473075</v>
+        <v>0.9493112332066979</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9796584488603955</v>
+        <v>0.9774507078629587</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>39845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28127</v>
+        <v>29581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53231</v>
+        <v>53951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1076998028966862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0760260653778437</v>
+        <v>0.07995628048788211</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1438808932726553</v>
+        <v>0.1458274744998539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -5810,19 +5810,19 @@
         <v>51890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38762</v>
+        <v>38706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68140</v>
+        <v>67305</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1339843396410283</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1000872851458832</v>
+        <v>0.09994127229598908</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1759430920208238</v>
+        <v>0.1737887139647019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -5831,19 +5831,19 @@
         <v>91735</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72155</v>
+        <v>75312</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111274</v>
+        <v>111797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1211426482025153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09528613042671931</v>
+        <v>0.09945459084645969</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1469451453015879</v>
+        <v>0.1476357369049731</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>330119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>316733</v>
+        <v>316013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>341837</v>
+        <v>340383</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8923001971033139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8561191067273447</v>
+        <v>0.8541725255001459</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.923973934622156</v>
+        <v>0.9200437195121177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -5881,19 +5881,19 @@
         <v>335393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319143</v>
+        <v>319978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348521</v>
+        <v>348577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8660156603589717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8240569079791761</v>
+        <v>0.826211286035298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8999127148541167</v>
+        <v>0.9000587277040109</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>629</v>
@@ -5902,19 +5902,19 @@
         <v>665512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>645973</v>
+        <v>645450</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>685092</v>
+        <v>681935</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8788573517974847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.853054854698412</v>
+        <v>0.8523642630950269</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9047138695732807</v>
+        <v>0.9005454091535403</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>17846</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11264</v>
+        <v>11113</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28683</v>
+        <v>27588</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08448888191589174</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05333030313188756</v>
+        <v>0.05261490655870765</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1357973973083215</v>
+        <v>0.1306135473097566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -6027,19 +6027,19 @@
         <v>18407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11481</v>
+        <v>11102</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27662</v>
+        <v>28349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0842104761844497</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05252199368153782</v>
+        <v>0.05079177532150535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1265484367087154</v>
+        <v>0.1296920805705898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -6048,19 +6048,19 @@
         <v>36253</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25664</v>
+        <v>25604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47798</v>
+        <v>48807</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08434729340691736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05970924004414595</v>
+        <v>0.05957059697538261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1112071099990837</v>
+        <v>0.1135565005834626</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>193375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182538</v>
+        <v>183633</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199957</v>
+        <v>200108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9155111180841082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8642026026916785</v>
+        <v>0.8693864526902435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9466696968681124</v>
+        <v>0.9473850934412924</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>205</v>
@@ -6098,19 +6098,19 @@
         <v>200180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190925</v>
+        <v>190238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207106</v>
+        <v>207485</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9157895238155503</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.873451563291285</v>
+        <v>0.8703079194294089</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9474780063184622</v>
+        <v>0.9492082246784945</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>399</v>
@@ -6119,19 +6119,19 @@
         <v>393555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382010</v>
+        <v>381001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404144</v>
+        <v>404204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9156527065930826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8887928900009164</v>
+        <v>0.8864434994165374</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9402907599558541</v>
+        <v>0.9404294030246174</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>26957</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18190</v>
+        <v>18756</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37612</v>
+        <v>38480</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1024501871836816</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06912940762102396</v>
+        <v>0.07128337778519171</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1429453655842011</v>
+        <v>0.1462445479594187</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -6244,19 +6244,19 @@
         <v>32213</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22176</v>
+        <v>22338</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45072</v>
+        <v>44149</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1179452575475898</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08119634077893721</v>
+        <v>0.08178996132694234</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.165028984967611</v>
+        <v>0.1616500682275938</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -6265,19 +6265,19 @@
         <v>59170</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45797</v>
+        <v>45904</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75326</v>
+        <v>74865</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.110342086213988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08540415427555455</v>
+        <v>0.08560338399392274</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1404715710602928</v>
+        <v>0.1396109196828376</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>236166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225511</v>
+        <v>224643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244933</v>
+        <v>244367</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8975498128163184</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8570546344157988</v>
+        <v>0.8537554520405809</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9308705923789751</v>
+        <v>0.9287166222148082</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -6315,19 +6315,19 @@
         <v>240902</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228043</v>
+        <v>228966</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250939</v>
+        <v>250777</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8820547424524102</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8349710150323889</v>
+        <v>0.8383499317724059</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9188036592210626</v>
+        <v>0.9182100386730576</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>467</v>
@@ -6336,19 +6336,19 @@
         <v>477068</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>460912</v>
+        <v>461373</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>490441</v>
+        <v>490334</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.889657913786012</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8595284289397073</v>
+        <v>0.8603890803171628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9145958457244456</v>
+        <v>0.9143966160060774</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>35366</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24506</v>
+        <v>24765</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49506</v>
+        <v>48824</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05432583299725079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03764349267183908</v>
+        <v>0.03804180344299108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07604628190149126</v>
+        <v>0.074998909247391</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -6461,19 +6461,19 @@
         <v>51394</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36561</v>
+        <v>37473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66611</v>
+        <v>65987</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07455584231604483</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05303710519087859</v>
+        <v>0.05436055115640128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09663039890275203</v>
+        <v>0.0957253456583199</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -6482,19 +6482,19 @@
         <v>86760</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69462</v>
+        <v>69378</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106581</v>
+        <v>109369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06473021208437935</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05182412726826234</v>
+        <v>0.05176171058295102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07951849350412904</v>
+        <v>0.08159820647210737</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>615628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>601488</v>
+        <v>602170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>626488</v>
+        <v>626229</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9456741670027492</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9239537180985088</v>
+        <v>0.9250010907526089</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9623565073281609</v>
+        <v>0.9619581965570089</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>599</v>
@@ -6532,19 +6532,19 @@
         <v>637945</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>622728</v>
+        <v>623352</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>652778</v>
+        <v>651866</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9254441576839552</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9033696010972477</v>
+        <v>0.9042746543416801</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9469628948091213</v>
+        <v>0.9456394488435987</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1142</v>
@@ -6553,19 +6553,19 @@
         <v>1253573</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1233752</v>
+        <v>1230964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1270871</v>
+        <v>1270955</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9352697879156207</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9204815064958711</v>
+        <v>0.9184017935278925</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9481758727317378</v>
+        <v>0.9482382894170489</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>67720</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52348</v>
+        <v>53489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86659</v>
+        <v>87068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08697876564667897</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06723457145236569</v>
+        <v>0.06869991488390233</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1113038330563303</v>
+        <v>0.1118288437879081</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -6678,19 +6678,19 @@
         <v>74725</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59688</v>
+        <v>57378</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93824</v>
+        <v>92286</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09044836292131708</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07224671536911567</v>
+        <v>0.06945141327193596</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1135657892070611</v>
+        <v>0.1117036316610869</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -6699,19 +6699,19 @@
         <v>142446</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>122562</v>
+        <v>117729</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>166754</v>
+        <v>167528</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08876500448804311</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07637454365118578</v>
+        <v>0.07336268366414628</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1039124718671716</v>
+        <v>0.1043952171918699</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>710863</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>691924</v>
+        <v>691515</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>726235</v>
+        <v>725094</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9130212343533211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8886961669436697</v>
+        <v>0.8881711562120916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9327654285476343</v>
+        <v>0.9313000851160976</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>689</v>
@@ -6749,19 +6749,19 @@
         <v>751442</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>732343</v>
+        <v>733881</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>766479</v>
+        <v>768789</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9095516370786829</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8864342107929389</v>
+        <v>0.8882963683389135</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9277532846308844</v>
+        <v>0.9305485867280648</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1377</v>
@@ -6770,19 +6770,19 @@
         <v>1462304</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1437996</v>
+        <v>1437222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1482188</v>
+        <v>1487021</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9112349955119569</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8960875281328281</v>
+        <v>0.8956047828081299</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9236254563488142</v>
+        <v>0.9266373163358537</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>237941</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>207158</v>
+        <v>207535</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>266620</v>
+        <v>269704</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07044624402970127</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06133246210174855</v>
+        <v>0.06144406259799352</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07893708787561635</v>
+        <v>0.07985018813113387</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>277</v>
@@ -6895,19 +6895,19 @@
         <v>308163</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>272314</v>
+        <v>275848</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>343946</v>
+        <v>348004</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08711326161499133</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07697927246256764</v>
+        <v>0.07797836776051914</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09722858783952383</v>
+        <v>0.09837571667271901</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>500</v>
@@ -6916,19 +6916,19 @@
         <v>546104</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>503919</v>
+        <v>499495</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>596051</v>
+        <v>597223</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07897241686341512</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07287204604590748</v>
+        <v>0.07223225538348983</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08619526979873124</v>
+        <v>0.08636485465795297</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3139683</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3111004</v>
+        <v>3107920</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3170466</v>
+        <v>3170089</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9295537559702988</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9210629121243835</v>
+        <v>0.9201498118688662</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9386675378982514</v>
+        <v>0.9385559374020065</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3054</v>
@@ -6966,19 +6966,19 @@
         <v>3229333</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3193550</v>
+        <v>3189492</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3265182</v>
+        <v>3261648</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9128867383850087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9027714121604762</v>
+        <v>0.901624283327281</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9230207275374324</v>
+        <v>0.922021632239481</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6047</v>
@@ -6987,19 +6987,19 @@
         <v>6369015</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6319068</v>
+        <v>6317896</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6411200</v>
+        <v>6415624</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9210275831365848</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9138047302012688</v>
+        <v>0.9136351453420464</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9271279539540929</v>
+        <v>0.9277677446165101</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>34128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25106</v>
+        <v>25122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46404</v>
+        <v>45708</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1070377945549724</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07874114679118895</v>
+        <v>0.07878959764167866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1455388917150724</v>
+        <v>0.1433554166161317</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -7356,19 +7356,19 @@
         <v>41656</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33494</v>
+        <v>32678</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52058</v>
+        <v>51815</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1317986583352944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1059742157194424</v>
+        <v>0.1033928785653548</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1647100158114034</v>
+        <v>0.1639390205934759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -7377,19 +7377,19 @@
         <v>75785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63084</v>
+        <v>61618</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90260</v>
+        <v>90741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1193639270264839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09935971833607007</v>
+        <v>0.09705014678488279</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1421620235527173</v>
+        <v>0.1429196470452674</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>284717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272441</v>
+        <v>273137</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293739</v>
+        <v>293723</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8929622054450276</v>
+        <v>0.8929622054450277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8544611082849274</v>
+        <v>0.8566445833838682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.921258853208811</v>
+        <v>0.9212104023583213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>464</v>
@@ -7427,19 +7427,19 @@
         <v>274405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>264003</v>
+        <v>264246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282567</v>
+        <v>283383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8682013416647058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8352899841885967</v>
+        <v>0.8360609794065241</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8940257842805578</v>
+        <v>0.8966071214346449</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>756</v>
@@ -7448,19 +7448,19 @@
         <v>559121</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>544646</v>
+        <v>544165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>571822</v>
+        <v>573288</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8806360729735161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8578379764472824</v>
+        <v>0.8570803529547333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9006402816639296</v>
+        <v>0.9029498532151173</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>100833</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80293</v>
+        <v>80720</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123593</v>
+        <v>124020</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1912111368983102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1522614242139607</v>
+        <v>0.1530712129850356</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2343702217708197</v>
+        <v>0.2351801038735445</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -7573,19 +7573,19 @@
         <v>101575</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86653</v>
+        <v>86992</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118951</v>
+        <v>117417</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1865728811383948</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1591637613277096</v>
+        <v>0.1597874065763103</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.218489475432647</v>
+        <v>0.2156722782557656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>234</v>
@@ -7594,19 +7594,19 @@
         <v>202408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180096</v>
+        <v>177217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>229447</v>
+        <v>228221</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1888550375200541</v>
+        <v>0.188855037520054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1680372722490282</v>
+        <v>0.1653508627430753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2140838306494005</v>
+        <v>0.2129392795652652</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>426506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403746</v>
+        <v>403319</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447046</v>
+        <v>446619</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8087888631016897</v>
+        <v>0.8087888631016898</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7656297782291803</v>
+        <v>0.7648198961264555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8477385757860391</v>
+        <v>0.8469287870149645</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -7644,19 +7644,19 @@
         <v>442850</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>425474</v>
+        <v>427008</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>457772</v>
+        <v>457433</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8134271188616051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7815105245673529</v>
+        <v>0.7843277217442342</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8408362386722901</v>
+        <v>0.8402125934236895</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>861</v>
@@ -7665,19 +7665,19 @@
         <v>869356</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>842317</v>
+        <v>843543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>891668</v>
+        <v>894547</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8111449624799459</v>
+        <v>0.8111449624799458</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7859161693505997</v>
+        <v>0.7870607204347349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.831962727750972</v>
+        <v>0.8346491372569254</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>50796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38341</v>
+        <v>39871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63270</v>
+        <v>63906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1611967951502164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1216730118735119</v>
+        <v>0.1265287837007976</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2007823522425374</v>
+        <v>0.2027993444350839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -7790,19 +7790,19 @@
         <v>46324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37032</v>
+        <v>36128</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58072</v>
+        <v>59086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1299838710526367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1039116453304449</v>
+        <v>0.1013742198794062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1629505758954835</v>
+        <v>0.1657949896648077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -7811,19 +7811,19 @@
         <v>97120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81565</v>
+        <v>81136</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114219</v>
+        <v>115684</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1446313110152589</v>
+        <v>0.1446313110152588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.121467333714024</v>
+        <v>0.1208284757848152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1700950817532092</v>
+        <v>0.1722775304150934</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>264322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251848</v>
+        <v>251212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>276777</v>
+        <v>275247</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8388032048497835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7992176477574628</v>
+        <v>0.797200655564916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.878326988126488</v>
+        <v>0.873471216299203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>461</v>
@@ -7861,19 +7861,19 @@
         <v>310057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>298309</v>
+        <v>297295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>319349</v>
+        <v>320253</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8700161289473634</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8370494241045167</v>
+        <v>0.8342050103351923</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8960883546695555</v>
+        <v>0.8986257801205941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>754</v>
@@ -7882,19 +7882,19 @@
         <v>574379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>557280</v>
+        <v>555815</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>589934</v>
+        <v>590363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8553686889847409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8299049182467906</v>
+        <v>0.8277224695849051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8785326662859758</v>
+        <v>0.8791715242151843</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>30607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18718</v>
+        <v>19252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47549</v>
+        <v>47489</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08253277101395499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05047493997624754</v>
+        <v>0.05191393673112587</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1282180359971231</v>
+        <v>0.128056088470809</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -8007,19 +8007,19 @@
         <v>29140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21535</v>
+        <v>21903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39725</v>
+        <v>39351</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06905936044917078</v>
+        <v>0.0690593604491708</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05103599512544872</v>
+        <v>0.05190738259095565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09414401982602071</v>
+        <v>0.09325810266467492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -8028,19 +8028,19 @@
         <v>59747</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44908</v>
+        <v>45206</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78433</v>
+        <v>80148</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07536169228198708</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05664432870624704</v>
+        <v>0.05702011842057336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0989307339307615</v>
+        <v>0.1010941109771172</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>340236</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>323294</v>
+        <v>323354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>352125</v>
+        <v>351591</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9174672289860449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.871781964002877</v>
+        <v>0.871943911529191</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9495250600237524</v>
+        <v>0.948086063268874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>546</v>
@@ -8078,19 +8078,19 @@
         <v>392821</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>382236</v>
+        <v>382610</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>400426</v>
+        <v>400058</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9309406395508292</v>
+        <v>0.9309406395508293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9058559801739793</v>
+        <v>0.9067418973353238</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.948964004874551</v>
+        <v>0.9480926174090442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>810</v>
@@ -8099,19 +8099,19 @@
         <v>733057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714371</v>
+        <v>712656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>747896</v>
+        <v>747598</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9246383077180128</v>
+        <v>0.9246383077180129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9010692660692382</v>
+        <v>0.8989058890228825</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.943355671293753</v>
+        <v>0.9429798815794265</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>15657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10324</v>
+        <v>10273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22581</v>
+        <v>22646</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0785919188561055</v>
+        <v>0.07859191885610552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05182072466684985</v>
+        <v>0.05156617533715874</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1133477112409275</v>
+        <v>0.1136755962068434</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -8224,19 +8224,19 @@
         <v>23815</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18358</v>
+        <v>18327</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30281</v>
+        <v>30320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1087840637076659</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08385505428953471</v>
+        <v>0.08371294242076582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1383177901797067</v>
+        <v>0.1384957175639769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -8245,19 +8245,19 @@
         <v>39472</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32445</v>
+        <v>31489</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48764</v>
+        <v>49481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09439922820459404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07759248492445051</v>
+        <v>0.07530653468008336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1166215184353295</v>
+        <v>0.1183347848879133</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>183563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>176639</v>
+        <v>176574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188896</v>
+        <v>188947</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9214080811438947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8866522887590735</v>
+        <v>0.8863244037931564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9481792753331505</v>
+        <v>0.9484338246628411</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>414</v>
@@ -8295,19 +8295,19 @@
         <v>195106</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188640</v>
+        <v>188601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>200563</v>
+        <v>200594</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8912159362923341</v>
+        <v>0.8912159362923342</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8616822098202935</v>
+        <v>0.8615042824360232</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9161449457104653</v>
+        <v>0.9162870575792343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>661</v>
@@ -8316,19 +8316,19 @@
         <v>378669</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>369377</v>
+        <v>368660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>385696</v>
+        <v>386652</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9056007717954059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8833784815646706</v>
+        <v>0.8816652151120865</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9224075150755496</v>
+        <v>0.9246934653199165</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>66441</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55952</v>
+        <v>55650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79302</v>
+        <v>80364</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2454351018099402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2066891355041002</v>
+        <v>0.2055727043132203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2929424650681196</v>
+        <v>0.2968655841700163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -8441,19 +8441,19 @@
         <v>62441</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52188</v>
+        <v>52375</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73992</v>
+        <v>74228</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2367424501184762</v>
+        <v>0.2367424501184761</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1978705988639662</v>
+        <v>0.1985787110537481</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2805385275243097</v>
+        <v>0.2814346176824813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>225</v>
@@ -8462,19 +8462,19 @@
         <v>128882</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113825</v>
+        <v>113958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147028</v>
+        <v>146706</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2411453492988574</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2129737778932461</v>
+        <v>0.2132217074442605</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2750975023699428</v>
+        <v>0.2744959474562796</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>204266</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>191405</v>
+        <v>190343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214755</v>
+        <v>215057</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7545648981900599</v>
+        <v>0.7545648981900598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7070575349318802</v>
+        <v>0.7031344158299838</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7933108644958997</v>
+        <v>0.7944272956867797</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -8512,19 +8512,19 @@
         <v>201309</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189758</v>
+        <v>189522</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211562</v>
+        <v>211375</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7632575498815239</v>
+        <v>0.7632575498815237</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.71946147247569</v>
+        <v>0.7185653823175183</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8021294011360334</v>
+        <v>0.8014212889462516</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>606</v>
@@ -8533,19 +8533,19 @@
         <v>405575</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>387429</v>
+        <v>387751</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>420632</v>
+        <v>420499</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7588546507011427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.724902497630057</v>
+        <v>0.7255040525437204</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7870262221067539</v>
+        <v>0.7867782925557395</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>114028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94907</v>
+        <v>95481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136797</v>
+        <v>136381</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1611209064697185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1341032059583603</v>
+        <v>0.1349136387403083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1932932593042436</v>
+        <v>0.1927049646586871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>198</v>
@@ -8658,19 +8658,19 @@
         <v>151370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132096</v>
+        <v>130590</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>173371</v>
+        <v>171419</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.196657921545755</v>
+        <v>0.1966579215457549</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1716170787409409</v>
+        <v>0.1696612022192404</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2252416463256776</v>
+        <v>0.2227059037537941</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>302</v>
@@ -8679,19 +8679,19 @@
         <v>265398</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>236470</v>
+        <v>234594</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>296228</v>
+        <v>293965</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1796350051260478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1600551718294076</v>
+        <v>0.1587853060045606</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2005024850330572</v>
+        <v>0.1989707274320845</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>593689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>570920</v>
+        <v>571336</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>612810</v>
+        <v>612236</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8388790935302814</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8067067406957563</v>
+        <v>0.8072950353413126</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8658967940416399</v>
+        <v>0.8650863612596916</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>759</v>
@@ -8729,19 +8729,19 @@
         <v>618342</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>596341</v>
+        <v>598293</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>637616</v>
+        <v>639122</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8033420784542451</v>
+        <v>0.803342078454245</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7747583536743226</v>
+        <v>0.7772940962462059</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8283829212590593</v>
+        <v>0.8303387977807597</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1245</v>
@@ -8750,19 +8750,19 @@
         <v>1212030</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1181200</v>
+        <v>1183463</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1240958</v>
+        <v>1242834</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8203649948739521</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7994975149669435</v>
+        <v>0.8010292725679156</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8399448281705924</v>
+        <v>0.8412146939954399</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>62220</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47567</v>
+        <v>48418</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78782</v>
+        <v>78157</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07815600588003858</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05974930369042615</v>
+        <v>0.06081861605627589</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09895983406338231</v>
+        <v>0.09817486084920354</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>114</v>
@@ -8875,19 +8875,19 @@
         <v>82936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69842</v>
+        <v>69636</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101203</v>
+        <v>98794</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1001904568347778</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08437262369098697</v>
+        <v>0.08412406775298442</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1222588302228262</v>
+        <v>0.1193485363929575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>179</v>
@@ -8896,19 +8896,19 @@
         <v>145156</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124477</v>
+        <v>124718</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>169653</v>
+        <v>167478</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08938813688409181</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07665399187337983</v>
+        <v>0.07680261360261846</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.104473589664338</v>
+        <v>0.1031343328227795</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>733883</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>717321</v>
+        <v>717946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>748536</v>
+        <v>747685</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9218439941199614</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9010401659366176</v>
+        <v>0.9018251391507967</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9402506963095734</v>
+        <v>0.9391813839437241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>943</v>
@@ -8946,19 +8946,19 @@
         <v>744843</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>726576</v>
+        <v>728985</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>757937</v>
+        <v>758143</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8998095431652222</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8777411697771742</v>
+        <v>0.8806514636070425</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.915627376309013</v>
+        <v>0.9158759322470156</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1638</v>
@@ -8967,19 +8967,19 @@
         <v>1478727</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1454230</v>
+        <v>1456405</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1499406</v>
+        <v>1499165</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9106118631159081</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.895526410335662</v>
+        <v>0.8968656671772204</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.92334600812662</v>
+        <v>0.9231973863973815</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>474711</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>436003</v>
+        <v>436417</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>521472</v>
+        <v>517292</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.13540364256046</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1243629726215608</v>
+        <v>0.1244809848605344</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1487415243536528</v>
+        <v>0.1475491876805594</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>844</v>
@@ -9092,19 +9092,19 @@
         <v>539257</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>503503</v>
+        <v>504728</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>576971</v>
+        <v>576256</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1450009092793508</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1353870123263746</v>
+        <v>0.1357164771962186</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1551417724226002</v>
+        <v>0.1549495295350229</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1356</v>
@@ -9113,19 +9113,19 @@
         <v>1013967</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>961252</v>
+        <v>956407</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1073789</v>
+        <v>1071338</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1403438121057234</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1330474081047858</v>
+        <v>0.1323767836660814</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1486237249953962</v>
+        <v>0.1482844585565282</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3031181</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2984420</v>
+        <v>2988600</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3069889</v>
+        <v>3069475</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8645963574395399</v>
+        <v>0.86459635743954</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8512584756463476</v>
+        <v>0.8524508123194405</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8756370273784392</v>
+        <v>0.8755190151394654</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4489</v>
@@ -9163,19 +9163,19 @@
         <v>3179733</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3142019</v>
+        <v>3142734</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3215487</v>
+        <v>3214262</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8549990907206491</v>
+        <v>0.8549990907206493</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8448582275773997</v>
+        <v>0.8450504704649769</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8646129876736253</v>
+        <v>0.8642835228037813</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7331</v>
@@ -9184,19 +9184,19 @@
         <v>6210915</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6151093</v>
+        <v>6153544</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6263630</v>
+        <v>6268475</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8596561878942767</v>
+        <v>0.8596561878942766</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8513762750046038</v>
+        <v>0.8517155414434719</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8669525918952146</v>
+        <v>0.8676232163339187</v>
       </c>
     </row>
     <row r="30">
